--- a/database/industries/darou/deabid/product/yearly.xlsx
+++ b/database/industries/darou/deabid/product/yearly.xlsx
@@ -78,9 +78,6 @@
     <t>بگ</t>
   </si>
   <si>
-    <t>شربت ها</t>
-  </si>
-  <si>
     <t>شیشه</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>سود ناخالص</t>
+  </si>
+  <si>
+    <t>شربت</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N86"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -823,10 +825,10 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
@@ -862,10 +864,10 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
@@ -901,10 +903,10 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
@@ -940,10 +942,10 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
@@ -979,10 +981,10 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
@@ -1018,10 +1020,10 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
@@ -1057,7 +1059,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1094,7 +1096,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1176,7 +1178,7 @@
     </row>
     <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1270,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
@@ -1306,10 +1308,10 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
@@ -1345,10 +1347,10 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
@@ -1384,10 +1386,10 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
@@ -1423,10 +1425,10 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
@@ -1462,10 +1464,10 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
@@ -1501,10 +1503,10 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
@@ -1540,10 +1542,10 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
@@ -1579,7 +1581,7 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1616,7 +1618,7 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -1698,7 +1700,7 @@
     </row>
     <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1753,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
@@ -1789,10 +1791,10 @@
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
@@ -1828,10 +1830,10 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
@@ -1867,10 +1869,10 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
@@ -1906,10 +1908,10 @@
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
@@ -1945,10 +1947,10 @@
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
@@ -1984,10 +1986,10 @@
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
@@ -2023,7 +2025,7 @@
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -2105,7 +2107,7 @@
     </row>
     <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2160,7 +2162,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
@@ -2196,10 +2198,10 @@
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
@@ -2235,10 +2237,10 @@
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
@@ -2274,10 +2276,10 @@
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
@@ -2313,10 +2315,10 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
@@ -2352,10 +2354,10 @@
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
@@ -2391,10 +2393,10 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
@@ -2475,7 +2477,7 @@
     </row>
     <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2530,7 +2532,7 @@
         <v>17</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
@@ -2566,10 +2568,10 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
@@ -2605,10 +2607,10 @@
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
@@ -2644,10 +2646,10 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
@@ -2683,10 +2685,10 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
@@ -2722,10 +2724,10 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
@@ -2761,10 +2763,10 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
@@ -2800,7 +2802,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -2882,7 +2884,7 @@
     </row>
     <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2937,7 +2939,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
@@ -2973,10 +2975,10 @@
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
@@ -3012,10 +3014,10 @@
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
@@ -3051,10 +3053,10 @@
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
@@ -3090,10 +3092,10 @@
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
@@ -3129,10 +3131,10 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
@@ -3168,10 +3170,10 @@
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
@@ -3207,7 +3209,7 @@
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
